--- a/zakupki_44.xlsx
+++ b/zakupki_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,22 +584,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>№ 0320300021025000067</t>
+          <t>№ 0320300034125000078</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЁННОЕ УЧРЕЖДЕНИЕ МИХАЙЛОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ "УЧРЕЖДЕНИЕ ХОЗЯЙСТВЕННОГО ОБЕСПЕЧЕНИЯ"</t>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ОЛЬГИНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Выполнение работ по устройству двух емкостей по 30 м3, и одной емкости 50 м3, наружного противопожарного водоснабжения с. Николаевка Ивановского территориального отдела, Михайловского муниципального округа Приморского края (ОДНА+ДВЕ ЦИСТЕРНЫ).</t>
+          <t>Система телемедицинская для оценки состояния человека</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 937 909,00 ₽</t>
+          <t>1 700 000,00 ₽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,140 +614,140 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300021025000067</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300034125000078</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>№ 0188300004525000069</t>
+          <t>№ 0320300032225000040</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ МУНИЦИПАЛЬНОГО ОКРУГА ПЕВЕК</t>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "КРАСНОАРМЕЙСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Поставка резерва материальных ресурсов в целях гражданской обороны, предупреждения и ликвидации чрезвычайных ситуаций (горюче-смазочных материалов)</t>
+          <t>Система телемедицинская для оценки состояния человека</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>182 340,00 ₽</t>
+          <t>1 700 000,00 ₽</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0188300004525000069</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300032225000040</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>№ 0347200011025000002</t>
+          <t>№ 0322500000225000004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР МОНИТОРИНГА КАЧЕСТВА ОБРАЗОВАНИЯ"</t>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ХАБАРОВСКИЙ КРАЕВОЙ ЦЕНТР ГОСУДАРСТВЕННОЙ КАДАСТРОВОЙ ОЦЕНКИ И УЧЕТА НЕДВИЖИМОСТИ"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>Поставка источника бесперебойного питания и внешнего батарейного блока</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 420 000,00 ₽</t>
+          <t>484 847,50 ₽</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200011025000002</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322500000225000004</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>№ 0320300134925000006</t>
+          <t>№ 0320300021025000067</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ЛАЗОВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 1 ЛАЗОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЁННОЕ УЧРЕЖДЕНИЕ МИХАЙЛОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ "УЧРЕЖДЕНИЕ ХОЗЯЙСТВЕННОГО ОБЕСПЕЧЕНИЯ"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Плита электрическая</t>
+          <t>Выполнение работ по устройству двух емкостей по 30 м3, и одной емкости 50 м3, наружного противопожарного водоснабжения с. Николаевка Ивановского территориального отдела, Михайловского муниципального округа Приморского края (ОДНА+ДВЕ ЦИСТЕРНЫ).</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>144 396,00 ₽</t>
+          <t>2 937 909,00 ₽</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0320300134925000006</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300021025000067</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>№ 0338300034625000053</t>
+          <t>№ 0188300004525000069</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "КЛЮЧЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>АДМИНИСТРАЦИЯ МУНИЦИПАЛЬНОГО ОКРУГА ПЕВЕК</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Поставка стоматологической установки</t>
+          <t>Поставка резерва материальных ресурсов в целях гражданской обороны, предупреждения и ликвидации чрезвычайных ситуаций (горюче-смазочных материалов)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>578 300,00 ₽</t>
+          <t>182 340,00 ₽</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,86 +757,3416 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300034625000053</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0188300004525000069</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>№ 0816300022125000156</t>
+          <t>№ 0347200011025000002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР МОНИТОРИНГА КАЧЕСТВА ОБРАЗОВАНИЯ"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Услуги по розничной торговле деталями, узлами и принадлежностями автотранспортных средств прочие, не включенные в другие группировки</t>
+          <t>Ноутбук</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>500 000,00 ₽</t>
+          <t>3 420 000,00 ₽</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000156</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200011025000002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>№ 1034200002925000511</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИРКУТСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Поставка лекарственного препарата для медицинского применения СЕНИПРУТУГ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>730 006,00 ₽</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=1034200002925000511</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>№ 0320300134925000006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ЛАЗОВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 1 ЛАЗОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Плита электрическая</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>144 396,00 ₽</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0320300134925000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>№ 0338300034625000053</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "КЛЮЧЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Поставка стоматологической установки</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>578 300,00 ₽</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300034625000053</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>№ 0334300173325000193</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "УСТЬ-КУТСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Поставка изделий медицинского назначения (Пакеты для сбора, хранения и транспортировки медицинских отходов)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>815 603,50 ₽</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 13.11.2025</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334300173325000193</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>№ 0334200003925000022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ "СОЦИАЛЬНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР ДЛЯ НЕСОВЕРШЕННОЛЕТНИХ "МАЛЮТКА" Г. ИРКУТСКА"</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Фрукты</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>627 675,72 ₽</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334200003925000022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>№ 0302300008025000086</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЕРАВНИНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Поставка ГСМ на 1 полугодие 2026 г.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2 534 240,00 ₽</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0302300008025000086</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>№ 0816300022125000156</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Услуги по розничной торговле деталями, узлами и принадлежностями автотранспортных средств прочие, не включенные в другие группировки</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>500 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000156</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>№ 0361200015025006007</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК САХАЛИНСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Поставка лекарственного препарата для медицинского применения (Тенофовир Алафенамид)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1 138 500,00 ₽</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>44-ФЗ Электронный аукцион</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0361200015025006007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>№ 0820200000125000067</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ "СПАССКИЙ СОЦИАЛЬНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР ДЛЯ НЕСОВЕРШЕННОЛЕТНИХ"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Линолеум</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>263 734,10 ₽</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0820200000125000067</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>№ 0322200030225000598</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ДЕТСКАЯ КРАЕВАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА" ИМЕНИ А. К. ПИОТРОВИЧА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Поставка комплектующих для компьютера</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>144 525,15 ₽</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322200030225000598</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>№ 0816300022125000155</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Поставка автозапчастей</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>500 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000155</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>№ 0122200002525004222</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Поставка нефтепродуктов</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8 441 697,00 ₽</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004222</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>№ 0138300002225000025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>АДМИНИСТРАЦИЯ ВИЛЮЧИНСКОГО ГОРОДСКОГО ОКРУГА ЗАКРЫТОГО АДМИНИСТРАТИВНО-ТЕРРИТОРИАЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА ВИЛЮЧИНСКА КАМЧАТСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Телевизор</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0138300002225000025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>№ 0322200006325000712</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ПЕРИНАТАЛЬНЫЙ ЦЕНТР" ИМЕНИ ПРОФЕССОРА Г.С. ПОСТОЛА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Поставка перчаток смотровых/процедурных нитриловых, неопудренных, нестерильных</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>365 904,00 ₽</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0322200006325000712</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>№ 0322200006325000711</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ПЕРИНАТАЛЬНЫЙ ЦЕНТР" ИМЕНИ ПРОФЕССОРА Г.С. ПОСТОЛА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Поставка продуктов питания (йогурт)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>355 975,00 ₽</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0322200006325000711</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>№ 0816300022125000157</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Приобретение скейт площадки в Мини-парк с.Покровка</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2 147 181,00 ₽</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000157</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>№ 0120100009625000034</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ПРИМОРСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Оказание услуг по изготовлению копий (тиражирование) обвинительных заключений</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2 903 738,04 ₽</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0120100009625000034</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>№ 0319300096525000335</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Аппарат для измерения артериального давления</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>87 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000335</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>№ 0165300017725000034</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>АДМИНИСТРАЦИЯ (ИСПОЛНИТЕЛЬНО-РАСПОРЯДИТЕЛЬНЫЙ ОРГАН МУНИЦИПАЛЬНОГО ОБРАЗОВАНИЯ) - АДМИНИСТРАЦИЯ КРИВОШЕИНСКОГО РАЙОНА</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Оказание услуг по диспансеризации муниципальных служащих Администрации Кривошеинского района</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>198 115,00 ₽</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0165300017725000034</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>№ 0138600002425000091</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>АДМИНИСТРАЦИЯ МИЛЬКОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА КАМЧАТСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Поставка продуктов питания № 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>310 212,38 ₽</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0138600002425000091</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>№ 0119100013925000011</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>КРАСНОЯРСКОЕ МЕЖРЕГИОНАЛЬНОЕ ТЕРРИТОРИАЛЬНОЕ УПРАВЛЕНИЕ ВОЗДУШНОГО ТРАНСПОРТА ФЕДЕРАЛЬНОГО АГЕНТСТВА ВОЗДУШНОГО ТРАНСПОРТА</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Поставка АРМ в сфере ИКТ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>989 283,35 ₽</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0119100013925000011</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>№ 0365300019525000230</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Поставка лекарственных препаратов для медицинского применения</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>245 940,00 ₽</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0365300019525000230</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>№ 0319300301625000160</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИГАРСКАЯ ГОРОДСКАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Оказание услуг по проведению профилактических осмотров несовершеннолетних (Приказ МЗ РФ от 10.08.2027 №514н) врачом детским неврологом и психиатром</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>426 600,00 ₽</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300301625000160</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>№ 0377100000925000115</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ СУДЕБНОГО ДЕПАРТАМЕНТА В РЕСПУБЛИКЕ АЛТАЙ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Оказание услуг по комплексному обслуживанию помещений (с котельным оборудованием) районных судов Республики Алтай</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5 093 064,64 ₽</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0377100000925000115</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>№ 0122200002525004187</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Оказание услуг по ремонту аппарата для иммуногистохимии Бонд-макс (Bond-maX) с принадлежностями</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2 224 741,81 ₽</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004187</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>№ 0265100001825000308</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЦЕНТР РЕАБИЛИТАЦИИ ФОНДА ПЕНСИОННОГО И СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ "КЛЮЧИ"</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Поставка расходных материалов для клинико-диагностической лаборатории - изделия медицинские полимерные лабораторные одноразовые для взятия и исследования проб крови (устройство вакуумное с поршнем)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>47 320,00 ₽</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0265100001825000308</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>№ 0351200004625000052</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ НОВОСИБИРСКОЙ ОБЛАСТИ "ГОСУДАРСТВЕННЫЙ НОВОСИБИРСКИЙ ОБЛАСТНОЙ ВРАЧЕБНО-ФИЗКУЛЬТУРНЫЙ ДИСПАНСЕР"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ноутбук</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>182 666,68 ₽</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0351200004625000052</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>№ 0319100017725000038</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ГЛАВНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО КРАСНОЯРСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Сухой корм животного происхождения для собак в рамках государственного оборонного заказа</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 641 730,00 ₽</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319100017725000038</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>№ 0265100001825000309</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЦЕНТР РЕАБИЛИТАЦИИ ФОНДА ПЕНСИОННОГО И СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ "КЛЮЧИ"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Поставка расходных материалов для клинико-диагностической лаборатории – изделия медицинские полимерные лабораторные одноразовые для взятия и исследования проб крови (пробирка вакуумная).</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>52 120,00 ₽</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0265100001825000309</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>№ 0865200000325001530</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Выполнение работ по капитальному ремонту объекта капитального строительства: «Капитальный ремонт тепловой сети к зданиям, расположенным по адресам: Томская область, Кожевниковский район, с. Уртам, ул. Кирова 46 (школа), ул. Кирова 46 стр.1 ( ЦПР), стр.2 ( тренажерный зал), ул. Кирова 44 ( СБО)»</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1 919 704,19 ₽</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион на проведение работ по строительству, реконструкции, кап. ремонту, сносу объекта кап. строительства в соответствии с п. 8 ч. 1 ст. 33 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001530</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>№ 0561600005225000003</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ремонт подвальных помещений г.Томари ул.Юбилейная д.19, с.Черемшанка ул.Гагарина д.12</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5 532 033,35 ₽</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>№ 0319300010125000516</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫХ ЗАКУПОК"</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Оказание услуг по охране объектов и имущества МУ «Талнахское территориальное управление Администрации города Норильска» в 2025 – 2026 гг.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>305 136,00 ₽</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300010125000516</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>№ 0319300096525000334</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Концентратор кислорода стационарный</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>85 150,00 ₽</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000334</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>№ 0347200006625000049</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>МАГАДАНСКАЯ ОБЛАСТНАЯ ДУМА</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Выполнение работ по разработке проектно-сметной документации системы пожарной сигнализации и системы оповещения и управления эвакуацией при пожаре, системы охранной сигнализации, системы экстренного оповещения работников и посетителей объектов (территорий) о потенциальной угрозе возникновения или о возникновении чрезвычайной ситуации для административного здания, расположенного по адресу: г. Магадан, ул. Горького, д. 8а</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1 126 233,33 ₽</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0347200006625000049</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>№ 0334300059025000080</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИРКУТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА № 7"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Поставка смесей для энтерального питания в 2026 году</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1 052 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334300059025000080</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>№ 0391100014925000035</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2-Й ВОСТОЧНЫЙ ОКРУЖНОЙ ВОЕННЫЙ СУД</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Поставка расходных материалов (картриджей) для печатающих устройств (закупка в сфере ИКТ)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>457 993,32 ₽</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.10.2025, 10.11.2025, 31.10.2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0391100014925000035</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>№ 0561600005225000002</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ремонт подвальных помещений г.Томари ул.Октябрьская д.54, ул.Юбилейная д.15</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8 221 298,52 ₽</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000096</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9 302 585,50 ₽</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000096</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000095</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9 754 865,90 ₽</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000095</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>№ 0800500003325000003</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "ТЕПЛО ЗЕМЛИ"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Выполнение проектно-изыскательских и строительно-монтажных работ по объекту: «Система снабжения термоминеральными водами резидентов площадки ТРК «Зеленовские озерки» ТОР «Камчатка», Елизовский муниципальный район, Камчатского края Кеткинского месторождения термоминеральных вод»</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1 605 271 448,00 ₽</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 26.11.2025</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>44-ФЗ Открытый конкурс в электронной форме</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ok20/view/common-info.html?regNumber=0800500003325000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>№ 0188100001425000018</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ПРОКУРАТУРА ЧУКОТСКОГО АВТОНОМНОГО ОКРУГА</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Поставка топлива автомобильного</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>630 840,00 ₽</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0188100001425000018</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000094</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9 754 865,90 ₽</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000094</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>№ 0347200001725000081</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОЙ ПОДДЕРЖКИ НАСЕЛЕНИЯ "МАГАДАНСКИЙ СОЦИАЛЬНЫЙ ЦЕНТР"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Монитор, подключаемый к компьютеру</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>162 066,71 ₽</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>07.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200001725000081</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000093</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9 744 586,80 ₽</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000093</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>№ 0891200000625009240</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЗАБАЙКАЛЬСКИЙ ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК"</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Приобретение расходных материалов (Игла для забора крови, стандартная) (00009911-ЭА)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>152 300,00 ₽</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0891200000625009240</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000092</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9 600 679,40 ₽</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000092</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>№ 0319300096525000333</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Изделия медицинского назначения</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9 207,50 ₽</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000333</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>№ 0865200000325001529</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Оказание услуг по диагностике, техническому обслуживанию и ремонту автотранспортных средств</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>150 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 21.11.2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001529</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>№ 0120100007825000048</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ,КАДАСТРА И КАРТОГРАФИИ ПО ПРИМОРСКОМУ КРАЮ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Оказание услуг военизированной охраны</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2 390 400,00 ₽</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0120100007825000048</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>№ 0365300019525000229</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Поставка изделий медицинского назначения (Лучепровод хирургической лазерной системы общего назначения/различных областей применения, многоразового использования)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>681 412,78 ₽</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0365300019525000229</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000091</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9 652 074,90 ₽</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000091</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000090</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9 631 516,70 ₽</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000090</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>№ 0320200022425000060</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "КРАЕВАЯ КЛИНИЧЕСКАЯ ДЕТСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Контейнер для отходов с биологическими загрязнениями</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2 169,00 ₽</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0320200022425000060</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>№ 0352300059325000370</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ЧЕРЛАКСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Анализатор биохимический одноканальный ИВД, для использования вблизи пациента</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>31 936,20 ₽</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300059325000370</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>№ 0339300070825000089</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Управление городского развития администрации города Кемерово</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9 590 400,30 ₽</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000089</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>№ 0852500000125004497</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Поставка продуктов питания (говядина замороженная) на 2026 год (Реестровый номер 25.1121)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5 216 400,00 ₽</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004497</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>№ 0561600005225000001</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ремонт подвальных помещений г.Томари ул.Юбилейная д.9, д.17</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6 216 659,10 ₽</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>№ 0538200000925000025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ КАМЧАТСКОГО КРАЯ "КАМЧАТСТРОЙЭНЕРГОСЕРВИС"</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Оказание услуг по комплексной уборке помещений</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11 771 368,80 ₽</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0538200000925000025</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>№ 0865200000325001528</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Оказание услуг по диагностике, техническому обслуживанию и ремонту автотранспортных средств</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2 200 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 21.11.2025</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001528</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>№ 0865200000325001527</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Поставка одежды защитной огнестойкой</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>116 766,50 ₽</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 25.11.2025</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001527</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>№ 0122200002525004101</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Поставка медицинских изделий: Система флюороскопическая рентгеновская общего назначения передвижная, цифровая, ввод в эксплуатацию медицинских изделий, обучение правилам эксплуатации специалистов, эксплуатирующих медицинские изделия</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>17 979 543,56 ₽</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0122200002525004101</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001624</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Оказание услуг по уборке и вывозу снега</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>750 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001624</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>№ 0852500000125004496</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Оказание услуг по ремонту медицинского оборудования (Реестровый номер 25.1134)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1 088 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004496</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001623</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Оказание услуг по уборке и вывозу снега</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4 359 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001623</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>№ 0122200002525004078</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Поставка продуктов питания: масло сливочное</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1 880 298,24 ₽</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0122200002525004078</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001622</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Оказание услуг по уборке и вывозу снега</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4 359 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001622</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>№ 0852500000125004495</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Поставка автомобильного топлива (Реестровый номер 25.1092)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1 700 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004495</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>№ 0817200000325018438</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Оказание услуг по установке и адаптации обновленной версии программы для ЭВМ «БАРС.Мониторинг-Здравоохранение»</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1 349 939,30 ₽</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>06.11.2025, 10.11.2025, 14.11.2025</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018438</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>№ 0865200000325001526</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Оказание охранных услуг</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4 235 985,60 ₽</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0865200000325001526</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>№ 0322200031825000053</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "КОМСОМОЛЬСКИЙ-НА-АМУРЕ КОМПЛЕКСНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ НАСЕЛЕНИЯ"</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Поставка табло светового "Свободно - Занято"</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>57 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322200031825000053</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>№ 0122100002525000052</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ПРОКУРАТУРА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Поставка сканеров и приводов внешних оптических (закупка в сфере ИКТ)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>255 960,00 ₽</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122100002525000052</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>№ 0122200002525004092</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Поставка лекарственного препарата для медицинского применения Ритуксимаб</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12 861 860,00 ₽</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>28.10.2025, 10.11.2025, 07.11.2025</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004092</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001621</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Оказание услуг по уборке наледей</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>54 710,31 ₽</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001621</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>№ 0351300122725000001</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА НОВОСИБИРСКА "СПОРТИВНАЯ ШКОЛА ОЛИМПИЙСКОГО РЕЗЕРВА ПО БОКСУ"</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Поставка блок-контейнера металлического</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>400 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0351300122725000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001620</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Овощи замороженные</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>34 100,00 ₽</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0116300000125001620</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>№ 0116300000125001619</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Сыры полутвердые</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>138 666,24 ₽</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0116300000125001619</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>№ 0347200001725000082</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОЙ ПОДДЕРЖКИ НАСЕЛЕНИЯ "МАГАДАНСКИЙ СОЦИАЛЬНЫЙ ЦЕНТР"</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Системный блок</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>170 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>07.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200001725000082</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>№ 0816500000625016037</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Поставка мягкого инвентаря (полотенце текстильное)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>263 966,00 ₽</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016037</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>№ 0180300002025000032</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ДЕПАРТАМЕНТ АРХИТЕКТУРЫ, ГРАДОСТРОИТЕЛЬСТВА И НЕДВИЖИМОСТИ ГОРОДА САЯНОГОРСКА</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Оказание услуг по адаптации, модификации, тестированию и сопровождению программ для ЭВМ и баз данных системы «1С: Реестр государственного и муниципального имущества», включающих в себя средства криптозащиты конфиденциальной информации</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>31 763,33 ₽</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0180300002025000032</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>№ 0816500000625016038</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Поставка обуви для нужд учреждения (сапоги резиновые с утеплителем)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>94 500,00 ₽</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016038</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>№ 0816500000625016040</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Поставка средств индивидуальной защиты</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>176 850,00 ₽</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016040</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>№ 0816500000625016036</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Поставка расходных материалов (маска, бахилы)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>208 100,00 ₽</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016036</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>№ 0352300059325000371</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ЧЕРЛАКСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Анализатор биохимический одноканальный ИВД, для использования вблизи пациента</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16 217,82 ₽</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300059325000371</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>№ 0852500000125004494</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Оказание услуг по созданию и размещению информационных материалов (текстовых и фотоматериалов) о деятельности Губернатора Омской области, Правительства Омской области, о социально-экономическом, общественно-политическом, научно-техническом и информационном развитии Омской области в печатном средстве массовой информации (газете), с дублированием на сайте в сети «Интернет» в 2026 году (Реестровый номер 25.1179)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>840 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004494</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>№ 0817200000325018705</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Поставка медицинских расходных материалов в 2026 году</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>660 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 20.11.2025</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018705</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>№ 0165300002425000253</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>УПРАВЛЕНИЕ ПО РАСПОРЯЖЕНИЮ МУНИЦИПАЛЬНЫМ ИМУЩЕСТВОМ И ЗЕМЛЕЙ АДМИНИСТРАЦИИ ВЕРХНЕКЕТСКОГО РАЙОНА</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Кондиционер бытовой</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>354 999,99 ₽</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0165300002425000253</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>№ 0352300034425000140</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ШЕРБАКУЛЬСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Средство дезинфицирующее</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>31 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300034425000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>№ 0351200019125000009</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ПРОФЕССИОНАЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ НОВОСИБИРСКОЙ ОБЛАСТИ "НОВОСИБИРСКИЙ ЦЕНТР ПРОФЕССИОНАЛЬНОГО ОБУЧЕНИЯ В СФЕРЕ ТРАНСПОРТА"</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Автомобиль легковой</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1 547 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0351200019125000009</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>№ 0365100000925001315</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ "ТОМСКИЙ НАЦИОНАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ МЕДИЦИНСКИЙ ЦЕНТР РОССИЙСКОЙ АКАДЕМИИ НАУК"</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Регистратор амбулаторный для электрокардиографического мониторинга</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1 222 640,01 ₽</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0365100000925001315</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>№ 0817200000325018707</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Поставка медицинских изделий для отделения рентгенохирургических методов диагностики и лечения</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>900 000,00 ₽</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10.11.2025, 10.11.2025, 20.11.2025</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018707</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>№ 0816500000625016438</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Поставка кабель пациента для нужд ГБУ РС (Я) "Нерюнгринская ЦРБ"</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>832 098,48 ₽</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>06.11.2025, 10.11.2025, 17.11.2025</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>44-ФЗ Электронный аукцион</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816500000625016438</t>
         </is>
       </c>
     </row>

--- a/zakupki_44.xlsx
+++ b/zakupki_44.xlsx
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>№ 0338300020825000123</t>
+          <t>№ 0330300068625000099</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "УСТЬ-БОЛЬШЕРЕЦКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА № 1"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Поставка лекарственных препаратов для медицинского применения</t>
+          <t>Поставка расходных материалов стоматологического назначения - Композит стоматологический (2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97 699,00 ₽</t>
+          <t>426 272,00 ₽</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,29 +503,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300020825000123</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300068625000099</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>№ 0338300020825000122</t>
+          <t>№ 0330300068625000098</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "УСТЬ-БОЛЬШЕРЕЦКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА № 1"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Поставка лекарственных препаратов для медицинского применения</t>
+          <t>Поставка расходных материалов стоматологического назначения - Композит стоматологический (1)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>387 825,50 ₽</t>
+          <t>426 272,00 ₽</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,29 +540,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300020825000122</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300068625000098</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>№ 0338300020825000121</t>
+          <t>№ 0330300068625000097</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "УСТЬ-БОЛЬШЕРЕЦКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА № 1"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Поставка лекарственных препаратов для медицинского применения</t>
+          <t>Поставка расходных материалов стоматологического назначения - Материал стоматологический адгезивный</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>274 341,00 ₽</t>
+          <t>351 616,50 ₽</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,34 +577,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300020825000121</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300068625000097</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>№ 0320300034125000078</t>
+          <t>№ 0330300034525000086</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ОЛЬГИНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "КАДУЙСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Система телемедицинская для оценки состояния человека</t>
+          <t>Поставка медицинских изделий (Спирометр диагностический), ввод в эксплуатацию медицинских изделий, обучение правилам эксплуатации специалистов, эксплуатирующих медицинские изделия</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 700 000,00 ₽</t>
+          <t>465 000,00 ₽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,29 +614,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300034125000078</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300034525000086</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>№ 0320300032225000040</t>
+          <t>№ 0330100004525000084</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "КРАСНОАРМЕЙСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 4 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Система телемедицинская для оценки состояния человека</t>
+          <t>продукты питания (полуфабрикаты)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 700 000,00 ₽</t>
+          <t>529 323,00 ₽</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,71 +651,71 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300032225000040</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100004525000084</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>№ 0322500000225000004</t>
+          <t>№ 0130100000525000010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ХАБАРОВСКИЙ КРАЕВОЙ ЦЕНТР ГОСУДАРСТВЕННОЙ КАДАСТРОВОЙ ОЦЕНКИ И УЧЕТА НЕДВИЖИМОСТИ"</t>
+          <t>ТЕРРИТОРИАЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОГО АГЕНТСТВА ПО УПРАВЛЕНИЮ ГОСУДАРСТВЕННЫМ ИМУЩЕСТВОМ В ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Поставка источника бесперебойного питания и внешнего батарейного блока</t>
+          <t>Услуги по техническому обслуживанию и текущему ремонту легковых автомобилей</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>484 847,50 ₽</t>
+          <t>156 280,25 ₽</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322500000225000004</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130100000525000010</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>№ 0320300021025000067</t>
+          <t>№ 0330200021625000043</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЁННОЕ УЧРЕЖДЕНИЕ МИХАЙЛОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ "УЧРЕЖДЕНИЕ ХОЗЯЙСТВЕННОГО ОБЕСПЕЧЕНИЯ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКИЙ ОБЛАСТНОЙ КОЖНО-ВЕНЕРОЛОГИЧЕСКИЙ ДИСПАНСЕР № 2"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Выполнение работ по устройству двух емкостей по 30 м3, и одной емкости 50 м3, наружного противопожарного водоснабжения с. Николаевка Ивановского территориального отдела, Михайловского муниципального округа Приморского края (ОДНА+ДВЕ ЦИСТЕРНЫ).</t>
+          <t>Оказание услуг по сопровождению Электронного периодического справочника «Система ГАРАНТ» (информационного продукта вычислительной техники) (далее — ЭПС «Система ГАРАНТ»), содержащей информацию о текущем состоянии законодательства Российской Федерации, путем предоставления в электронном виде по каналам связи посредством телекоммуникационной сети Интернет формируемых текущих версий специальных информационных массивов (далее — СИМ) ЭПС «Система ГАРАНТ»</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 937 909,00 ₽</t>
+          <t>125 760,00 ₽</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,108 +725,108 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0320300021025000067</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200021625000043</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>№ 0188300004525000069</t>
+          <t>№ 0330200021625000042</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ МУНИЦИПАЛЬНОГО ОКРУГА ПЕВЕК</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКИЙ ОБЛАСТНОЙ КОЖНО-ВЕНЕРОЛОГИЧЕСКИЙ ДИСПАНСЕР № 2"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Поставка резерва материальных ресурсов в целях гражданской обороны, предупреждения и ликвидации чрезвычайных ситуаций (горюче-смазочных материалов)</t>
+          <t>Оказание услуг по техническому обслуживанию объектового оборудования и контроль исправности прохождения сигнала радиосистемы передачи извещений (РСПИ) программно-аппаратного комплекса (ПАК) «Стрелец-Мониторинг» на объектах Заказчика»</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>182 340,00 ₽</t>
+          <t>25 200,00 ₽</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0188300004525000069</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200021625000042</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>№ 0347200011025000002</t>
+          <t>№ 0330100004425000025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР МОНИТОРИНГА КАЧЕСТВА ОБРАЗОВАНИЯ"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "СЛЕДСТВЕННЫЙ ИЗОЛЯТОР № 3 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>Поставка пленки для ламинирования</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3 420 000,00 ₽</t>
+          <t>18 240,00 ₽</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200011025000002</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100004425000025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>№ 1034200002925000511</t>
+          <t>№ 0330100004425000024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИРКУТСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "СЛЕДСТВЕННЫЙ ИЗОЛЯТОР № 3 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Поставка лекарственного препарата для медицинского применения СЕНИПРУТУГ</t>
+          <t>Поставка фотобумаги для офисной техники</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>730 006,00 ₽</t>
+          <t>22 676,70 ₽</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,71 +836,71 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=1034200002925000511</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100004425000024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>№ 0320300134925000006</t>
+          <t>№ 0330100004425000023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ЛАЗОВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 1 ЛАЗОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ПРИМОРСКОГО КРАЯ</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "СЛЕДСТВЕННЫЙ ИЗОЛЯТОР № 3 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Плита электрическая</t>
+          <t>Поставка бумаги художественной</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>144 396,00 ₽</t>
+          <t>20 546,64 ₽</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0320300134925000006</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100004425000023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>№ 0338300034625000053</t>
+          <t>№ 0330500000225000089</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ КАМЧАТСКОГО КРАЯ "КЛЮЧЕВСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКИЙ ГОРОДСКОЙ РОДИЛЬНЫЙ ДОМ"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Поставка стоматологической установки</t>
+          <t>Поставка стоек гардеробных</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>578 300,00 ₽</t>
+          <t>102 456,66 ₽</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,34 +910,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0338300034625000053</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330500000225000089</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>№ 0334300173325000193</t>
+          <t>№ 0330100004525000083</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "УСТЬ-КУТСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 4 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Поставка изделий медицинского назначения (Пакеты для сбора, хранения и транспортировки медицинских отходов)</t>
+          <t>поставка продуктов питания (яйцо)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>815 603,50 ₽</t>
+          <t>44 800,00 ₽</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 13.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,66 +947,66 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334300173325000193</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100004525000083</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>№ 0334200003925000022</t>
+          <t>№ 0330200016825000321</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ "СОЦИАЛЬНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР ДЛЯ НЕСОВЕРШЕННОЛЕТНИХ "МАЛЮТКА" Г. ИРКУТСКА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Фрукты</t>
+          <t>Поставка лекарственного препарата для медицинского применения ГИДРОКОРТИЗОН</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>627 675,72 ₽</t>
+          <t>9 768,00 ₽</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334200003925000022</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200016825000321</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>№ 0302300008025000086</t>
+          <t>№ 0330300184725000070</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЕРАВНИНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ГРЯЗОВЕЦКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Поставка ГСМ на 1 полугодие 2026 г.</t>
+          <t>Укрепление материально-технической базы учреждения в части приобретения оборудования для оснащения Бушуихского ФАПа (Медицинское изделие - Ширма прикроватная)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 534 240,00 ₽</t>
+          <t>8 190,00 ₽</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1021,182 +1021,182 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0302300008025000086</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300184725000070</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>№ 0816300022125000156</t>
+          <t>№ 0330200016825000320</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Услуги по розничной торговле деталями, узлами и принадлежностями автотранспортных средств прочие, не включенные в другие группировки</t>
+          <t>Поставка лекарственного препарата для медицинского применения РЕКОМБИНАНТНЫЙ БЕЛОК, СОДЕРЖАЩИЙ АМИНОКИСЛОТНУЮ ПОСЛЕДОВАТЕЛЬНОСТЬ СТАФИЛОКИНАЗЫ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>500 000,00 ₽</t>
+          <t>483 529,20 ₽</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000156</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200016825000320</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>№ 0361200015025006007</t>
+          <t>№ 0330500000725000253</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК САХАЛИНСКОЙ ОБЛАСТИ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКАЯ ГОРОДСКАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Поставка лекарственного препарата для медицинского применения (Тенофовир Алафенамид)</t>
+          <t>Выполнение работ по установке системы видеонаблюдения по адресу: Вологодская область, Череповецкий район, д.Ботово ул.Ленина д.21.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 138 500,00 ₽</t>
+          <t>291 666,67 ₽</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0361200015025006007</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330500000725000253</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>№ 0820200000125000067</t>
+          <t>№ 0330200011325000030</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ "СПАССКИЙ СОЦИАЛЬНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР ДЛЯ НЕСОВЕРШЕННОЛЕТНИХ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКИЙ ОБЛАСТНОЙ ПРОТИВОТУБЕРКУЛЕЗНЫЙ ДИСПАНСЕР № 2"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Линолеум</t>
+          <t>Поставка контейнеров для твердых коммунальных отходов</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>263 734,10 ₽</t>
+          <t>69 866,67 ₽</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0820200000125000067</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200011325000030</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>№ 0322200030225000598</t>
+          <t>№ 0130200001725000052</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ДЕТСКАЯ КРАЕВАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА" ИМЕНИ А. К. ПИОТРОВИЧА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+          <t>ЗАКОНОДАТЕЛЬНОЕ СОБРАНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Поставка комплектующих для компьютера</t>
+          <t>Поставка рамок</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>144 525,15 ₽</t>
+          <t>599 000,00 ₽</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>26.09.2025, 10.11.2025, 07.10.2025</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322200030225000598</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130200001725000052</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>№ 0816300022125000155</t>
+          <t>№ 0830500000225004240</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Поставка автозапчастей</t>
+          <t>Поставка средств автотранспортных</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>500 000,00 ₽</t>
+          <t>3 330 000,00 ₽</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>07.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1206,145 +1206,145 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000155</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004240</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>№ 0122200002525004222</t>
+          <t>№ 0330500000725000254</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКАЯ ГОРОДСКАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Поставка нефтепродуктов</t>
+          <t>Поставка медицинских изделий: Дефибриллятор внешний для профессионального использования</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8 441 697,00 ₽</t>
+          <t>356 666,67 ₽</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004222</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330500000725000254</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>№ 0138300002225000025</t>
+          <t>№ 0330100000225000047</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ ВИЛЮЧИНСКОГО ГОРОДСКОГО ОКРУГА ЗАКРЫТОГО АДМИНИСТРАТИВНО-ТЕРРИТОРИАЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА ВИЛЮЧИНСКА КАМЧАТСКОГО КРАЯ</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНОЕ БЮРО МЕДИКО-СОЦИАЛЬНОЙ ЭКСПЕРТИЗЫ ПО ВОЛОГОДСКОЙ ОБЛАСТИ" МИНИСТЕРСТВА ТРУДА И СОЦИАЛЬНОЙ ЗАЩИТЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Телевизор</t>
+          <t>Поставка дерматологических средства индивидуальной защиты</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35 000,00 ₽</t>
+          <t>28 932,00 ₽</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0138300002225000025</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100000225000047</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>№ 0322200006325000712</t>
+          <t>№ 0230100000225000299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ПЕРИНАТАЛЬНЫЙ ЦЕНТР" ИМЕНИ ПРОФЕССОРА Г.С. ПОСТОЛА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+          <t>ОТДЕЛЕНИЕ ФОНДА ПЕНСИОННОГО И СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Поставка перчаток смотровых/процедурных нитриловых, неопудренных, нестерильных</t>
+          <t>Поставка подгузников для взрослых (размер XS) в целях социального обеспечения граждан в 2025 году</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>365 904,00 ₽</t>
+          <t>618 685,20 ₽</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0322200006325000712</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0230100000225000299</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>№ 0322200006325000711</t>
+          <t>№ 0330100004525000082</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ПЕРИНАТАЛЬНЫЙ ЦЕНТР" ИМЕНИ ПРОФЕССОРА Г.С. ПОСТОЛА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ ХАБАРОВСКОГО КРАЯ</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 4 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Поставка продуктов питания (йогурт)</t>
+          <t>поставка бумаги офисной</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>355 975,00 ₽</t>
+          <t>59 739,90 ₽</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1354,29 +1354,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0322200006325000711</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100004525000082</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>№ 0816300022125000157</t>
+          <t>№ 0830300002325000197</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫМИ ЗАКУПКАМИ" МУНИЦИПАЛЬНОГО РАЙОНА "АМГИНСКИЙ УЛУС (РАЙОН)"</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "СПЕЦАВТОТРАНС"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Приобретение скейт площадки в Мини-парк с.Покровка</t>
+          <t>Выполнение работ по текущему ремонту трубопроводов склада соляного раствора (обвязка ёмкостей хлора) муниципального казенного учреждения «Спецавтотранс»</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 147 181,00 ₽</t>
+          <t>1 205 767,54 ₽</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,39 +1386,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816300022125000157</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0830300002325000197</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>№ 0120100009625000034</t>
+          <t>№ 0330300198125000109</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ПРИМОРСКОМУ КРАЮ</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЗЕЛЕНСТРОЙ"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Оказание услуг по изготовлению копий (тиражирование) обвинительных заключений</t>
+          <t>Поставка соли для промышленных целей</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2 903 738,04 ₽</t>
+          <t>18 100 000,00 ₽</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+          <t>05.11.2025, 10.11.2025, 13.11.2025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1428,71 +1428,71 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0120100009625000034</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330300198125000109</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>№ 0319300096525000335</t>
+          <t>№ 0830500000225004274</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Аппарат для измерения артериального давления</t>
+          <t>Оказание услуг по автоматизированной рассылке СМС-сообщений</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87 000,00 ₽</t>
+          <t>2 520 000,00 ₽</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000335</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0830500000225004274</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>№ 0165300017725000034</t>
+          <t>№ 0830500000225004196</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ (ИСПОЛНИТЕЛЬНО-РАСПОРЯДИТЕЛЬНЫЙ ОРГАН МУНИЦИПАЛЬНОГО ОБРАЗОВАНИЯ) - АДМИНИСТРАЦИЯ КРИВОШЕИНСКОГО РАЙОНА</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Оказание услуг по диспансеризации муниципальных служащих Администрации Кривошеинского района</t>
+          <t>Оказание услуг междугородной и международной телефонной связи</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>198 115,00 ₽</t>
+          <t>1 033 000,00 ₽</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1502,177 +1502,173 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0165300017725000034</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004196</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>№ 0138600002425000091</t>
+          <t>№ 0330300007625000326</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>АДМИНИСТРАЦИЯ МИЛЬКОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА КАМЧАТСКОГО КРАЯ</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Поставка продуктов питания № 1</t>
-        </is>
-      </c>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3"</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>310 212,38 ₽</t>
+          <t>599 760,00 ₽</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0138600002425000091</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0330300007625000326</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>№ 0119100013925000011</t>
+          <t>№ 0330100002225000070</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСКОЕ МЕЖРЕГИОНАЛЬНОЕ ТЕРРИТОРИАЛЬНОЕ УПРАВЛЕНИЕ ВОЗДУШНОГО ТРАНСПОРТА ФЕДЕРАЛЬНОГО АГЕНТСТВА ВОЗДУШНОГО ТРАНСПОРТА</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 12 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Поставка АРМ в сфере ИКТ</t>
+          <t>Поставка пены монтажной для проведения капитальных ремонтов объектов учреждения</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>989 283,35 ₽</t>
+          <t>72 000,00 ₽</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0119100013925000011</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100002225000070</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>№ 0365300019525000230</t>
+          <t>№ 0330100002225000069</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 12 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Поставка лекарственных препаратов для медицинского применения</t>
+          <t>Поставка окон ПВХ и комплектующих для проведения капитальных ремонтов объектов учреждения</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>245 940,00 ₽</t>
+          <t>2 073 299,97 ₽</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0365300019525000230</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100002225000069</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>№ 0319300301625000160</t>
+          <t>№ 0330300007625000311</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИГАРСКАЯ ГОРОДСКАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Оказание услуг по проведению профилактических осмотров несовершеннолетних (Приказ МЗ РФ от 10.08.2027 №514н) врачом детским неврологом и психиатром</t>
+          <t>Оказание услуг по вывозу, переработке и утилизации компьютерной техники и оргтехники</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>426 600,00 ₽</t>
+          <t>15 000,00 ₽</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300301625000160</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300007625000311</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>№ 0377100000925000115</t>
+          <t>№ 0830500000225004273</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>УПРАВЛЕНИЕ СУДЕБНОГО ДЕПАРТАМЕНТА В РЕСПУБЛИКЕ АЛТАЙ</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Оказание услуг по комплексному обслуживанию помещений (с котельным оборудованием) районных судов Республики Алтай</t>
+          <t>Оказание услуг по техническому обслуживанию зданий, помещений судебных участков мировых судей Вологодской области на 2026 год</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5 093 064,64 ₽</t>
+          <t>1 000 000,00 ₽</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1687,367 +1683,367 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0377100000925000115</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004273</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>№ 0122200002525004187</t>
+          <t>№ 0330300184125000060</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "КОМПЛЕКСНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ НАСЕЛЕНИЯ ТАРНОГСКОГО РАЙОНА"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Оказание услуг по ремонту аппарата для иммуногистохимии Бонд-макс (Bond-maX) с принадлежностями</t>
+          <t>Поставка мусорного контейнера для ТБО</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2 224 741,81 ₽</t>
+          <t>36 313,33 ₽</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004187</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300184125000060</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>№ 0265100001825000308</t>
+          <t>№ 0330300010325000374</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЦЕНТР РЕАБИЛИТАЦИИ ФОНДА ПЕНСИОННОГО И СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ "КЛЮЧИ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Поставка расходных материалов для клинико-диагностической лаборатории - изделия медицинские полимерные лабораторные одноразовые для взятия и исследования проб крови (устройство вакуумное с поршнем)</t>
+          <t>Поставка медицинских изделий: лейкопластырей гипоаллергенных (4)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>47 320,00 ₽</t>
+          <t>429 442,50 ₽</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0265100001825000308</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300010325000374</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>№ 0351200004625000052</t>
+          <t>№ 0130200000325000787</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ НОВОСИБИРСКОЙ ОБЛАСТИ "ГОСУДАРСТВЕННЫЙ НОВОСИБИРСКИЙ ОБЛАСТНОЙ ВРАЧЕБНО-ФИЗКУЛЬТУРНЫЙ ДИСПАНСЕР"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>Поставка лекарственного препарата для медицинского применения Упадацитиниб</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>182 666,68 ₽</t>
+          <t>3 861 000,00 ₽</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0351200004625000052</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000787</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>№ 0319100017725000038</t>
+          <t>№ 0330300010325000373</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ГЛАВНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО КРАСНОЯРСКОМУ КРАЮ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Сухой корм животного происхождения для собак в рамках государственного оборонного заказа</t>
+          <t>Поставка медицинских изделий: лейкопластырей гипоаллергенных (2)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3 641 730,00 ₽</t>
+          <t>406 656,00 ₽</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319100017725000038</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300010325000373</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>№ 0265100001825000309</t>
+          <t>№ 0130200000325000786</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЦЕНТР РЕАБИЛИТАЦИИ ФОНДА ПЕНСИОННОГО И СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ "КЛЮЧИ"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Поставка расходных материалов для клинико-диагностической лаборатории – изделия медицинские полимерные лабораторные одноразовые для взятия и исследования проб крови (пробирка вакуумная).</t>
+          <t>Поставка лекарственного препарата для медицинского применения Тикагрелор</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>52 120,00 ₽</t>
+          <t>2 807 781,60 ₽</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0265100001825000309</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000786</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>№ 0865200000325001530</t>
+          <t>№ 0130200000325000788</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Выполнение работ по капитальному ремонту объекта капитального строительства: «Капитальный ремонт тепловой сети к зданиям, расположенным по адресам: Томская область, Кожевниковский район, с. Уртам, ул. Кирова 46 (школа), ул. Кирова 46 стр.1 ( ЦПР), стр.2 ( тренажерный зал), ул. Кирова 44 ( СБО)»</t>
+          <t>Поставка лекарственного препарата для медицинского применения Капецитабин</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1 919 704,19 ₽</t>
+          <t>1 432 560,00 ₽</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион на проведение работ по строительству, реконструкции, кап. ремонту, сносу объекта кап. строительства в соответствии с п. 8 ч. 1 ст. 33 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001530</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000788</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>№ 0561600005225000003</t>
+          <t>№ 0830500000225004272</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ремонт подвальных помещений г.Томари ул.Юбилейная д.19, с.Черемшанка ул.Гагарина д.12</t>
+          <t>Оказание медицинских услуг (проведение лабораторных исследований)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5 532 033,35 ₽</t>
+          <t>2 676 841,30 ₽</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000003</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004272</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>№ 0319300010125000516</t>
+          <t>№ 0130200000325000790</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ МУНИЦИПАЛЬНЫХ ЗАКУПОК"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Оказание услуг по охране объектов и имущества МУ «Талнахское территориальное управление Администрации города Норильска» в 2025 – 2026 гг.</t>
+          <t>Поставка лекарственного препарата для медицинского применения Инсулин гларгин+ ликсисенатид</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>305 136,00 ₽</t>
+          <t>3 062 469,60 ₽</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300010125000516</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000790</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>№ 0319300096525000334</t>
+          <t>№ 0130200000325000791</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Концентратор кислорода стационарный</t>
+          <t>Поставка лекарственного препарата для медицинского применения Ленватиниб</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>85 150,00 ₽</t>
+          <t>4 241 856,00 ₽</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000334</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000791</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>№ 0347200006625000049</t>
+          <t>№ 0130100007025000037</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>МАГАДАНСКАЯ ОБЛАСТНАЯ ДУМА</t>
+          <t>ВОЛОГОДСКИЙ ОБЛАСТНОЙ СУД</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Выполнение работ по разработке проектно-сметной документации системы пожарной сигнализации и системы оповещения и управления эвакуацией при пожаре, системы охранной сигнализации, системы экстренного оповещения работников и посетителей объектов (территорий) о потенциальной угрозе возникновения или о возникновении чрезвычайной ситуации для административного здания, расположенного по адресу: г. Магадан, ул. Горького, д. 8а</t>
+          <t>Приобретение расходных материалов к печатающей технике для нужд Вологодского областного суда</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 126 233,33 ₽</t>
+          <t>71 500,00 ₽</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2057,404 +2053,404 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0347200006625000049</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130100007025000037</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>№ 0334300059025000080</t>
+          <t>№ 0330100004525000080</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ИРКУТСКАЯ ГОРОДСКАЯ БОЛЬНИЦА № 7"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 4 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Поставка смесей для энтерального питания в 2026 году</t>
+          <t>поставка продуктов питания (тесто замороженое)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 052 000,00 ₽</t>
+          <t>61 499,00 ₽</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0334300059025000080</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100004525000080</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>№ 0391100014925000035</t>
+          <t>№ 0330300040925000064</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2-Й ВОСТОЧНЫЙ ОКРУЖНОЙ ВОЕННЫЙ СУД</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ТАРНОГСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Поставка расходных материалов (картриджей) для печатающих устройств (закупка в сфере ИКТ)</t>
+          <t>Поставка лекарственного препарата для медицинского применения Дротаверин</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>457 993,32 ₽</t>
+          <t>13 120,00 ₽</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>23.10.2025, 10.11.2025, 31.10.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0391100014925000035</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300040925000064</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>№ 0561600005225000002</t>
+          <t>№ 0130100000525000011</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+          <t>ТЕРРИТОРИАЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОГО АГЕНТСТВА ПО УПРАВЛЕНИЮ ГОСУДАРСТВЕННЫМ ИМУЩЕСТВОМ В ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ремонт подвальных помещений г.Томари ул.Октябрьская д.54, ул.Юбилейная д.15</t>
+          <t>перевозка имущества, обращенного в собственность государства</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8 221 298,52 ₽</t>
+          <t>350 000,00 ₽</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000002</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130100000525000011</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>№ 0339300070825000096</t>
+          <t>№ 0330300040925000063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ТАРНОГСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Поставка лекарственного препарата для медицинского применения Моксонидин</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9 302 585,50 ₽</t>
+          <t>26 796,00 ₽</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000096</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300040925000063</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>№ 0339300070825000095</t>
+          <t>№ 0330300122525000257</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ГОРОДСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Оказание услуг по перевозке компьютерного томографа TOSHIBA Aquilion RXL32</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9 754 865,90 ₽</t>
+          <t>259 200,00 ₽</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000095</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300122525000257</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>№ 0800500003325000003</t>
+          <t>№ 0330300061125000016</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "ТЕПЛО ЗЕМЛИ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "КОМПЛЕКСНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ НАСЕЛЕНИЯ ХАРОВСКОГО РАЙОНА"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Выполнение проектно-изыскательских и строительно-монтажных работ по объекту: «Система снабжения термоминеральными водами резидентов площадки ТРК «Зеленовские озерки» ТОР «Камчатка», Елизовский муниципальный район, Камчатского края Кеткинского месторождения термоминеральных вод»</t>
+          <t>Поставка спец. одежды и обуви</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1 605 271 448,00 ₽</t>
+          <t>161 396,71 ₽</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 26.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>44-ФЗ Открытый конкурс в электронной форме</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ok20/view/common-info.html?regNumber=0800500003325000003</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300061125000016</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>№ 0188100001425000018</t>
+          <t>№ 0330300051225000220</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ПРОКУРАТУРА ЧУКОТСКОГО АВТОНОМНОГО ОКРУГА</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛИЗОВАННАЯ БУХГАЛТЕРИЯ, ОБСЛУЖИВАЮЩАЯ МУНИЦИПАЛЬНЫЕ УЧРЕЖДЕНИЯ ГОРОДА ВОЛОГДЫ"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Поставка топлива автомобильного</t>
+          <t>Выполнение работ по изготовлению представительской (сувенирной) продукции</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>630 840,00 ₽</t>
+          <t>639 958,40 ₽</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>23.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0188100001425000018</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300051225000220</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>№ 0339300070825000094</t>
+          <t>№ 0330300001725000029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ХОЗЯЙСТВЕННАЯ СЛУЖБА"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Поставка воды</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9 754 865,90 ₽</t>
+          <t>681 474,00 ₽</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000094</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300001725000029</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>№ 0347200001725000081</t>
+          <t>№ 0330300001725000031</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОЙ ПОДДЕРЖКИ НАСЕЛЕНИЯ "МАГАДАНСКИЙ СОЦИАЛЬНЫЙ ЦЕНТР"</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ХОЗЯЙСТВЕННАЯ СЛУЖБА"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Монитор, подключаемый к компьютеру</t>
+          <t>Услуги по изготовлению комплекта мебели по индивидуальному заказу с последующей доставкой, сборкой и установкой</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>162 066,71 ₽</t>
+          <t>560 333,33 ₽</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200001725000081</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300001725000031</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>№ 0339300070825000093</t>
+          <t>№ 0330300001725000030</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ХОЗЯЙСТВЕННАЯ СЛУЖБА"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Поставка моющих, чистящих и полирующих средств для автомобилей</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9 744 586,80 ₽</t>
+          <t>119 739,95 ₽</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000093</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300001725000030</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>№ 0891200000625009240</t>
+          <t>№ 0830500000225004051</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЗАБАЙКАЛЬСКИЙ ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК"</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Приобретение расходных материалов (Игла для забора крови, стандартная) (00009911-ЭА)</t>
+          <t>Оказание услуг по технической поддержке подсистемы хранения и обработки результатов диагностических исследований (медицинских изображений) ГИС «РМИС ВО» для обеспечения работоспособности, эффективного и бесперебойного функционирования региональной медицинской информационной системы</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>152 300,00 ₽</t>
+          <t>8 945 986,72 ₽</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>24.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2464,108 +2460,108 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0891200000625009240</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004051</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>№ 0339300070825000092</t>
+          <t>№ 0330300051225000219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛИЗОВАННАЯ БУХГАЛТЕРИЯ, ОБСЛУЖИВАЮЩАЯ МУНИЦИПАЛЬНЫЕ УЧРЕЖДЕНИЯ ГОРОДА ВОЛОГДЫ"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Поставка бумаги для офисной техники</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9 600 679,40 ₽</t>
+          <t>35 533,10 ₽</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000092</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300051225000219</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>№ 0319300096525000333</t>
+          <t>№ 0130600031125000051</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ТУРИНСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>АДМИНИСТРАЦИЯ ХАРОВСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Изделия медицинского назначения</t>
+          <t>Содержание мест захоронений, а именно, установление правового статуса земельных участков под ними (проведение кадастровых работ по формированию земельных участков)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9 207,50 ₽</t>
+          <t>500 168,54 ₽</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0319300096525000333</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130600031125000051</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>№ 0865200000325001529</t>
+          <t>№ 0330100013125000064</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+          <t>УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ СУДЕБНЫХ ПРИСТАВОВ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Оказание услуг по диагностике, техническому обслуживанию и ремонту автотранспортных средств</t>
+          <t>Оказание услуг по хранению арестованных и изъятых в рамках исполнительных производств легковых автотранспортных средств</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>150 000,00 ₽</t>
+          <t>200 000,00 ₽</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 21.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2575,34 +2571,34 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001529</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100013125000064</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>№ 0120100007825000048</t>
+          <t>№ 0830500000225004095</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ,КАДАСТРА И КАРТОГРАФИИ ПО ПРИМОРСКОМУ КРАЮ</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Оказание услуг военизированной охраны</t>
+          <t>Поставка средства автотранспортного.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2 390 400,00 ₽</t>
+          <t>9 000 000,00 ₽</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2612,34 +2608,34 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0120100007825000048</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004095</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>№ 0365300019525000229</t>
+          <t>№ 0330100013125000063</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1"</t>
+          <t>УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ СУДЕБНЫХ ПРИСТАВОВ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Поставка изделий медицинского назначения (Лучепровод хирургической лазерной системы общего назначения/различных областей применения, многоразового использования)</t>
+          <t>Оказание услуг по оценке арестованного имущества</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>681 412,78 ₽</t>
+          <t>700 000,00 ₽</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2649,288 +2645,288 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0365300019525000229</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100013125000063</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>№ 0339300070825000091</t>
+          <t>№ 0830500000225003762</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Выполнение инженерных изысканий и разработка проектной документации на строительство объекта «Блочно-модульная котельная мощностью 1 МВт для д. Ясная Поляна»</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9 652 074,90 ₽</t>
+          <t>6 027 252,00 ₽</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>07.10.2025, 10.11.2025, 06.11.2025</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Открытый конкурс в электронной форме</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000091</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ok20/view/common-info.html?regNumber=0830500000225003762</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>№ 0339300070825000090</t>
+          <t>№ 0830500000225003967</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Капитальный ремонт МДОУ «Тоншаловский детский сад «Солнышко»</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9 631 516,70 ₽</t>
+          <t>46 321 980,00 ₽</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>21.10.2025, 10.11.2025, 06.11.2025</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Открытый конкурс в электронной форме на проведение работ по строительству, реконструкции, кап. ремонту, сносу объекта кап. строительства в соответствии с п. 8 ч. 1 ст. 33 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000090</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ok20/view/common-info.html?regNumber=0830500000225003967</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>№ 0320200022425000060</t>
+          <t>№ 0330200019725000049</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "КРАЕВАЯ КЛИНИЧЕСКАЯ ДЕТСКАЯ ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "БЮРО СУДЕБНО-МЕДИЦИНСКОЙ ЭКСПЕРТИЗЫ"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Контейнер для отходов с биологическими загрязнениями</t>
+          <t>Поставка запасных частей для газового хроматографа</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2 169,00 ₽</t>
+          <t>110 520,01 ₽</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0320200022425000060</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200019725000049</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>№ 0352300059325000370</t>
+          <t>№ 0330200019725000047</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ЧЕРЛАКСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "БЮРО СУДЕБНО-МЕДИЦИНСКОЙ ЭКСПЕРТИЗЫ"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Анализатор биохимический одноканальный ИВД, для использования вблизи пациента</t>
+          <t>Поставка расходных материалов для газового хроматографа</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>31 936,20 ₽</t>
+          <t>453 377,02 ₽</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300059325000370</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200019725000047</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>№ 0339300070825000089</t>
+          <t>№ 0330300010325000405</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Управление городского развития администрации города Кемерово</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Приобретение в муниципальную собственность города Кемерово 2 благоустроенных квартир путем участия в долевом строительстве многоквартирного дома для переселения граждан из аварийного жилищного фонда</t>
+          <t>Поставка медицинских изделий: цемента костного, не содержащего лекарственные средства</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9 590 400,30 ₽</t>
+          <t>498 117,40 ₽</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>05.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0339300070825000089</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300010325000405</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>№ 0852500000125004497</t>
+          <t>№ 0330100012125000021</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+          <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "ВОЛОГОДСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Поставка продуктов питания (говядина замороженная) на 2026 год (Реестровый номер 25.1121)</t>
+          <t>Выполнение работ по завершению строительства спортивного объекта:« Бассейн ФГБОУ ВО «Вологодский государственный университет» по адресу: г. Вологда, Осановский проезд</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5 216 400,00 ₽</t>
+          <t>84 569 325,10 ₽</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Электронный аукцион на проведение работ по строительству, реконструкции, кап. ремонту, сносу объекта кап. строительства в соответствии с п. 8 ч. 1 ст. 33 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004497</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100012125000021</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>№ 0561600005225000001</t>
+          <t>№ 0330100014825000024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "БЛАГОУСТРОЙСТВО" ТОМАРИНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА САХАЛИНСКОЙ ОБЛАСТИ</t>
+          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ремонт подвальных помещений г.Томари ул.Юбилейная д.9, д.17</t>
+          <t>Услуги охраны служебных зданий (помещений) Следственного комитета техническими средствами</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6 216 659,10 ₽</t>
+          <t>23 347,80 ₽</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0561600005225000001</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100014825000024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>№ 0538200000925000025</t>
+          <t>№ 0330100014825000023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ КАМЧАТСКОГО КРАЯ "КАМЧАТСТРОЙЭНЕРГОСЕРВИС"</t>
+          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Оказание услуг по комплексной уборке помещений</t>
+          <t>Услуги охраны служебных зданий (помещений) Следственного комитета техническими средствами</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11 771 368,80 ₽</t>
+          <t>516 705,60 ₽</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2945,71 +2941,71 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0538200000925000025</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100014825000023</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>№ 0865200000325001528</t>
+          <t>№ 0330200019125000045</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКИЙ ОБЛАСТНОЙ ПСИХОНЕВРОЛОГИЧЕСКИЙ ДИСПАНСЕР № 2"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Оказание услуг по диагностике, техническому обслуживанию и ремонту автотранспортных средств</t>
+          <t>Поставка основных средств (кресла офисные)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2 200 000,00 ₽</t>
+          <t>108 660,00 ₽</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 21.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001528</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200019125000045</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>№ 0865200000325001527</t>
+          <t>№ 0330100014825000022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Поставка одежды защитной огнестойкой</t>
+          <t>Услуги охраны служебных зданий (помещений) Следственного комитета техническими средствами</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>116 766,50 ₽</t>
+          <t>53 964,00 ₽</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 25.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3019,34 +3015,34 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0865200000325001527</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100014825000022</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>№ 0122200002525004101</t>
+          <t>№ 0330300122525000249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ГОРОДСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Поставка медицинских изделий: Система флюороскопическая рентгеновская общего назначения передвижная, цифровая, ввод в эксплуатацию медицинских изделий, обучение правилам эксплуатации специалистов, эксплуатирующих медицинские изделия</t>
+          <t>Поставка стульев на металлическом каркасе (1)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17 979 543,56 ₽</t>
+          <t>494 000,00 ₽</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3056,145 +3052,145 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0122200002525004101</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300122525000249</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>№ 0116300000125001624</t>
+          <t>№ 0830500000225004271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Оказание услуг по уборке и вывозу снега</t>
+          <t>Приобретение в специализированный жилищный фонд области благоустроенной квартиры в г. Грязовце Грязовецкого района Вологодской области для обеспечения жилыми помещениями детей-сирот, детей, оставшихся без попечения родителей, лиц из числа детей-сирот и детей, оставшихся без попечения родителей, не реализовавших право на обеспечение жилыми помещениями</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>750 000,00 ₽</t>
+          <t>2 250 000,00 ₽</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 25.11.2025</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001624</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004271</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>№ 0852500000125004496</t>
+          <t>№ 0330100011025000073</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ИСПРАВИТЕЛЬНАЯ КОЛОНИЯ № 5 УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Оказание услуг по ремонту медицинского оборудования (Реестровый номер 25.1134)</t>
+          <t>Материалы лакокрасочные в рамках капитального ремонта</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 088 000,00 ₽</t>
+          <t>56 380,00 ₽</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004496</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100011025000073</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>№ 0116300000125001623</t>
+          <t>№ 0830500000225004270</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Оказание услуг по уборке и вывозу снега</t>
+          <t>Приобретение в специализированный жилищный фонд области благоустроенной квартиры в г. Грязовце Грязовецкого района Вологодской области для обеспечения жилыми помещениями детей-сирот, детей, оставшихся без попечения родителей, лиц из числа детей-сирот и детей, оставшихся без попечения родителей, не реализовавших право на обеспечение жилыми помещениями</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4 359 000,00 ₽</t>
+          <t>2 250 000,00 ₽</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 25.11.2025</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001623</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004270</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>№ 0122200002525004078</t>
+          <t>№ 0330300118425000180</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Поставка продуктов питания: масло сливочное</t>
+          <t>Поставка лекарственных препаратов для медицинского применения</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1 880 298,24 ₽</t>
+          <t>137 959,90 ₽</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>28.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3204,29 +3200,29 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0122200002525004078</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300118425000180</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>№ 0116300000125001622</t>
+          <t>№ 0330200019725000048</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "БЮРО СУДЕБНО-МЕДИЦИНСКОЙ ЭКСПЕРТИЗЫ"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Оказание услуг по уборке и вывозу снега</t>
+          <t>Поставка филамента для газового хроматографа</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4 359 000,00 ₽</t>
+          <t>77 067,34 ₽</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3241,108 +3237,108 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001622</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200019725000048</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>№ 0852500000125004495</t>
+          <t>№ 0130600031225000382</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+          <t>АДМИНИСТРАЦИЯ ВЕЛИКОУСТЮГСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Поставка автомобильного топлива (Реестровый номер 25.1092)</t>
+          <t>Поставка бумаги</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 700 000,00 ₽</t>
+          <t>95 739,44 ₽</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004495</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130600031225000382</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>№ 0817200000325018438</t>
+          <t>№ 0330300010325000404</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Оказание услуг по установке и адаптации обновленной версии программы для ЭВМ «БАРС.Мониторинг-Здравоохранение»</t>
+          <t>Поставка лекарственного препарата для медицинского применения (СЕВОФЛУРАН)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1 349 939,30 ₽</t>
+          <t>478 800,00 ₽</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>06.11.2025, 10.11.2025, 14.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018438</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300010325000404</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>№ 0865200000325001526</t>
+          <t>№ 0330300065925000027</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК ТОМСКОЙ ОБЛАСТИ"</t>
+          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЧЕРЕПОВЕЦКИЙ МОЛОДЕЖНЫЙ ЦЕНТР"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Оказание охранных услуг</t>
+          <t>Поставка подарочной продукции</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4 235 985,60 ₽</t>
+          <t>33 400,00 ₽</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3352,177 +3348,173 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0865200000325001526</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300065925000027</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>№ 0322200031825000053</t>
+          <t>№ 0307100019925000022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "КОМСОМОЛЬСКИЙ-НА-АМУРЕ КОМПЛЕКСНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ НАСЕЛЕНИЯ"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ИНЖЕНЕРНО-ТЕХНИЧЕСКОГО ОБЕСПЕЧЕНИЯ И ВООРУЖЕНИЯ УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО ВОЛОГОДСКОЙ ОБЛАСТИ"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Поставка табло светового "Свободно - Занято"</t>
+          <t>Закупка персональных электронно-вычислительных машин (автоматизированное рабочее место) в комплекте в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>57 000,00 ₽</t>
+          <t>5 136 000,00 ₽</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0322200031825000053</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0307100019925000022</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>№ 0122100002525000052</t>
+          <t>№ 0330300007625000325</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ПРОКУРАТУРА ХАБАРОВСКОГО КРАЯ</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Поставка сканеров и приводов внешних оптических (закупка в сфере ИКТ)</t>
-        </is>
-      </c>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3"</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>255 960,00 ₽</t>
+          <t>128 520,00 ₽</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+          <t>10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122100002525000052</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0330300007625000325</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>№ 0122200002525004092</t>
+          <t>№ 0330300118425000179</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>КОМИТЕТ ГОСУДАРСТВЕННОГО ЗАКАЗА ПРАВИТЕЛЬСТВА ХАБАРОВСКОГО КРАЯ</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Поставка лекарственного препарата для медицинского применения Ритуксимаб</t>
+          <t>Поставка лекарственных препаратов для медицинского применения</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12 861 860,00 ₽</t>
+          <t>137 959,90 ₽</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>28.10.2025, 10.11.2025, 07.11.2025</t>
+          <t>07.11.2025, 10.11.2025, 14.11.2025</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0122200002525004092</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300118425000179</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>№ 0116300000125001621</t>
+          <t>№ 0330300010325000403</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Оказание услуг по уборке наледей</t>
+          <t>Бахилы водонепроницаемые</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>54 710,31 ₽</t>
+          <t>220 000,00 ₽</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0116300000125001621</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0330300010325000403</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>№ 0351300122725000001</t>
+          <t>№ 0330300007625000324</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА НОВОСИБИРСКА "СПОРТИВНАЯ ШКОЛА ОЛИМПИЙСКОГО РЕЗЕРВА ПО БОКСУ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Поставка блок-контейнера металлического</t>
+          <t>Поставка перчаток смотровых/ процедурных нитриловых, неопудренных, нестерильных</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>400 000,00 ₽</t>
+          <t>495 000,00 ₽</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,34 +3524,34 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0351300122725000001</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300007625000324</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>№ 0116300000125001620</t>
+          <t>№ 0330300010325000402</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 2"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Овощи замороженные</t>
+          <t>Электрочайник бытовой</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>34 100,00 ₽</t>
+          <t>32 000,00 ₽</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3574,108 +3566,108 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0116300000125001620</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0330300010325000402</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>№ 0116300000125001619</t>
+          <t>№ 0830500000225003896</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ОКРУЖНАЯ АДМИНИСТРАЦИЯ ГОРОДА ЯКУТСКА</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Сыры полутвердые</t>
+          <t>Услуги частной охраны (Выставление поста охраны)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>138 666,24 ₽</t>
+          <t>7 918 164,00 ₽</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>17.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Открытый конкурс в электронной форме</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0116300000125001619</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ok20/view/common-info.html?regNumber=0830500000225003896</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>№ 0347200001725000082</t>
+          <t>№ 0130200000325000789</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>МАГАДАНСКОЕ ОБЛАСТНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОЙ ПОДДЕРЖКИ НАСЕЛЕНИЯ "МАГАДАНСКИЙ СОЦИАЛЬНЫЙ ЦЕНТР"</t>
+          <t>МИНИСТЕРСТВО ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Системный блок</t>
+          <t>Поставка лекарственного препарата для медицинского применения Вилдаглиптин</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>170 000,00 ₽</t>
+          <t>266 000,00 ₽</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>07.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0347200001725000082</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130200000325000789</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>№ 0816500000625016037</t>
+          <t>№ 0130600041625000095</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+          <t>АДМИНИСТРАЦИЯ УСТЮЖЕНСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Поставка мягкого инвентаря (полотенце текстильное)</t>
+          <t>Поставка песка</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>263 966,00 ₽</t>
+          <t>396 460,00 ₽</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3685,71 +3677,71 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016037</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0130600041625000095</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>№ 0180300002025000032</t>
+          <t>№ 0330300061525000071</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ДЕПАРТАМЕНТ АРХИТЕКТУРЫ, ГРАДОСТРОИТЕЛЬСТВА И НЕДВИЖИМОСТИ ГОРОДА САЯНОГОРСКА</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ТОТЕМСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Оказание услуг по адаптации, модификации, тестированию и сопровождению программ для ЭВМ и баз данных системы «1С: Реестр государственного и муниципального имущества», включающих в себя средства криптозащиты конфиденциальной информации</t>
+          <t>Поставка медицинских изделий: катетер венозный центральный периферически вводимый</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>31 763,33 ₽</t>
+          <t>230 590,00 ₽</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
+          <t>01.11.2025, 10.11.2025, 11.11.2025</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0180300002025000032</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300061525000071</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>№ 0816500000625016038</t>
+          <t>№ 0330200012725000099</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ ИНФЕКЦИОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Поставка обуви для нужд учреждения (сапоги резиновые с утеплителем)</t>
+          <t>Оказание услуг по изготовлению и поставке экстемпоральных лекарственных форм</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>94 500,00 ₽</t>
+          <t>275 864,50 ₽</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3759,66 +3751,66 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016038</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200012725000099</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>№ 0816500000625016040</t>
+          <t>№ 0830500000225004269</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Поставка средств индивидуальной защиты</t>
+          <t>Поставка лекарственного препарата для медицинского применения Хлорпротиксен</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>176 850,00 ₽</t>
+          <t>851 694,00 ₽</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>29.10.2025, 10.11.2025, 06.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>44-ФЗ Запрос котировок в электронной форме</t>
+          <t>44-ФЗ Электронный аукцион</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016040</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0830500000225004269</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>№ 0816500000625016036</t>
+          <t>№ 0830500000225004097</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК"</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Поставка расходных материалов (маска, бахилы)</t>
+          <t>Поставка учебного комплекса по отработке практических навыков выполнения геодезических работ</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>208 100,00 ₽</t>
+          <t>4 639 280,00 ₽</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3833,71 +3825,71 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0816500000625016036</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0830500000225004097</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>№ 0352300059325000371</t>
+          <t>№ 0330100014825000020</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ЧЕРЛАКСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>СЛЕДСТВЕННОЕ УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Анализатор биохимический одноканальный ИВД, для использования вблизи пациента</t>
+          <t>Приобретение форменного обмундирования и спецодежды (наплечные знаки)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>16 217,82 ₽</t>
+          <t>56 233,00 ₽</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>30.10.2025, 10.11.2025, 07.11.2025</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300059325000371</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330100014825000020</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>№ 0852500000125004494</t>
+          <t>№ 0130600031225000394</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>КАЗЕННОЕ УЧРЕЖДЕНИЕ ОМСКОЙ ОБЛАСТИ "ЦЕНТР ЗАКУПОК ТОВАРОВ, РАБОТ, УСЛУГ"</t>
+          <t>АДМИНИСТРАЦИЯ ВЕЛИКОУСТЮГСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Оказание услуг по созданию и размещению информационных материалов (текстовых и фотоматериалов) о деятельности Губернатора Омской области, Правительства Омской области, о социально-экономическом, общественно-политическом, научно-техническом и информационном развитии Омской области в печатном средстве массовой информации (газете), с дублированием на сайте в сети «Интернет» в 2026 году (Реестровый номер 25.1179)</t>
+          <t>Содержание автомобильных дорог местного значения в границах Орловского территориального отдела администрации Великоустюгского муниципального округа Вологодской области</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>840 000,00 ₽</t>
+          <t>459 000,00 ₽</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 19.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3907,34 +3899,34 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0852500000125004494</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130600031225000394</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>№ 0817200000325018705</t>
+          <t>№ 0330100000225000040</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+          <t>ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНОЕ БЮРО МЕДИКО-СОЦИАЛЬНОЙ ЭКСПЕРТИЗЫ ПО ВОЛОГОДСКОЙ ОБЛАСТИ" МИНИСТЕРСТВА ТРУДА И СОЦИАЛЬНОЙ ЗАЩИТЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Поставка медицинских расходных материалов в 2026 году</t>
+          <t>Поставка спецодежды</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>660 000,00 ₽</t>
+          <t>301 466,84 ₽</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 20.11.2025</t>
+          <t>29.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3944,219 +3936,219 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018705</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0330100000225000040</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>№ 0165300002425000253</t>
+          <t>№ 0330300184725000069</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>УПРАВЛЕНИЕ ПО РАСПОРЯЖЕНИЮ МУНИЦИПАЛЬНЫМ ИМУЩЕСТВОМ И ЗЕМЛЕЙ АДМИНИСТРАЦИИ ВЕРХНЕКЕТСКОГО РАЙОНА</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ГРЯЗОВЕЦКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Кондиционер бытовой</t>
+          <t>Укрепление материально-технической базы учреждения в части приобретения оборудования для оснащения Бушуихского ФАПа (Медицинское изделие - Система обогрева всего тела на основе электроодеяла)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>354 999,99 ₽</t>
+          <t>73 806,67 ₽</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 17.11.2025</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0165300002425000253</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300184725000069</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>№ 0352300034425000140</t>
+          <t>№ 0330300000825000147</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ОМСКОЙ ОБЛАСТИ "ШЕРБАКУЛЬСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ГОРОДСКАЯ ПОЛИКЛИНИКА № 1"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Средство дезинфицирующее</t>
+          <t>Поставка медицинских изделий (шовный материал) (695/1)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>31 000,00 ₽</t>
+          <t>323 854,00 ₽</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0352300034425000140</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300000825000147</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>№ 0351200019125000009</t>
+          <t>№ 0330200026325000004</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ПРОФЕССИОНАЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ НОВОСИБИРСКОЙ ОБЛАСТИ "НОВОСИБИРСКИЙ ЦЕНТР ПРОФЕССИОНАЛЬНОГО ОБУЧЕНИЯ В СФЕРЕ ТРАНСПОРТА"</t>
+          <t>БЮДЖЕТНОЕ ПРОФЕССИОНАЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВОЛОГОДСКОЙ ОБЛАСТИ "ЧЕРЕПОВЕЦКИЙ МЕДИЦИНСКИЙ КОЛЛЕДЖ ИМЕНИ Н.М. АМОСОВА"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Автомобиль легковой</t>
+          <t>Услуги частной охраны (Выставление поста охраны)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1 547 000,00 ₽</t>
+          <t>415 233,60 ₽</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0351200019125000009</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330200026325000004</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>№ 0365100000925001315</t>
+          <t>№ 0330300000825000148</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ "ТОМСКИЙ НАЦИОНАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ МЕДИЦИНСКИЙ ЦЕНТР РОССИЙСКОЙ АКАДЕМИИ НАУК"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ГОРОДСКАЯ ПОЛИКЛИНИКА № 1"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Регистратор амбулаторный для электрокардиографического мониторинга</t>
+          <t>Поставка медицинских изделий (шовный материал) (695/2)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1 222 640,01 ₽</t>
+          <t>137 310,00 ₽</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025</t>
+          <t>31.10.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>44-ФЗ Закупка, осуществляемая в соответствии с частью 12 статьи 93 Закона № 44-ФЗ</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ezt20/view/common-info.html?regNumber=0365100000925001315</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300000825000148</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>№ 0817200000325018707</t>
+          <t>№ 0330300007625000323</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>КРАЕВОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННЫХ ЗАКУПОК АЛТАЙСКОГО КРАЯ"</t>
+          <t>БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ВОЛОГОДСКОЙ ОБЛАСТИ "ВОЛОГОДСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА № 3"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Поставка медицинских изделий для отделения рентгенохирургических методов диагностики и лечения</t>
+          <t>Поставка ростомера медицинского</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>900 000,00 ₽</t>
+          <t>80 000,00 ₽</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10.11.2025, 10.11.2025, 20.11.2025</t>
+          <t>10.11.2025, 10.11.2025, 18.11.2025</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>44-ФЗ Электронный аукцион</t>
+          <t>44-ФЗ Запрос котировок в электронной форме</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0817200000325018707</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/zk20/view/common-info.html?regNumber=0330300007625000323</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>№ 0816500000625016438</t>
+          <t>№ 0130600039525000059</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "ЦЕНТР ЗАКУПОК РЕСПУБЛИКИ САХА (ЯКУТИЯ)"</t>
+          <t>АДМИНИСТРАЦИЯ ВОЖЕГОДСКОГО МУНИЦИПАЛЬНОГО ОКРУГА ВОЛОГОДСКОЙ ОБЛАСТИ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Поставка кабель пациента для нужд ГБУ РС (Я) "Нерюнгринская ЦРБ"</t>
+          <t>Выполнение работ по сносу аварийных домов, расположенных на территории Вожегодского муниципального округа</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>832 098,48 ₽</t>
+          <t>997 172,12 ₽</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>06.11.2025, 10.11.2025, 17.11.2025</t>
+          <t>01.11.2025, 10.11.2025, 10.11.2025</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4166,7 +4158,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0816500000625016438</t>
+          <t>https://zakupki.gov.ru/epz/order/notice/ea20/view/common-info.html?regNumber=0130600039525000059</t>
         </is>
       </c>
     </row>
